--- a/Bachelor's Degree Final Project/CAT3/submission/are-you-queryous-planning.xlsx.xlsx
+++ b/Bachelor's Degree Final Project/CAT3/submission/are-you-queryous-planning.xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\Bachelor's Degree Final Project\CAT3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24A574-90B2-4432-B172-C6C3C05F29A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF7336B-B112-45B0-91BB-7DBAC7630D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1328,6 +1328,54 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1342,54 +1390,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1753,12 +1753,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1778,55 +1778,55 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76" t="s">
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76" t="s">
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76" t="s">
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76" t="s">
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="44" t="s">
         <v>53</v>
       </c>
@@ -1881,13 +1881,13 @@
       <c r="W4" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="76"/>
+      <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="5"/>
       <c r="F5" s="26">
         <f t="shared" ref="F5:J5" si="0">COUNTIF(F8:F13, ".")</f>
@@ -1961,7 +1961,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X5" s="76"/>
+      <c r="X5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -1993,31 +1993,31 @@
       <c r="A7" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="67"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="83"/>
       <c r="Y7" s="11"/>
     </row>
     <row r="8" spans="1:25" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2442,31 +2442,31 @@
       <c r="A18" s="25">
         <v>2</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="67"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="83"/>
       <c r="Y18" s="11"/>
     </row>
     <row r="19" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -2647,31 +2647,31 @@
       <c r="A23" s="25">
         <v>3</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="67"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="83"/>
       <c r="Y23" s="11"/>
     </row>
     <row r="24" spans="1:25" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.35">
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="W24" s="46"/>
-      <c r="X24" s="82" t="s">
+      <c r="X24" s="65" t="s">
         <v>78</v>
       </c>
       <c r="Y24" s="11"/>
@@ -2787,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="W25" s="47"/>
-      <c r="X25" s="84" t="s">
+      <c r="X25" s="67" t="s">
         <v>80</v>
       </c>
       <c r="Y25" s="10"/>
@@ -2844,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="W26" s="48"/>
-      <c r="X26" s="85" t="s">
+      <c r="X26" s="68" t="s">
         <v>80</v>
       </c>
       <c r="Y26" s="11"/>
@@ -2926,7 +2926,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="49"/>
-      <c r="X28" s="83" t="s">
+      <c r="X28" s="66" t="s">
         <v>81</v>
       </c>
       <c r="Y28" s="11"/>
@@ -2935,31 +2935,31 @@
       <c r="A29" s="25">
         <v>4</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="67"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="83"/>
       <c r="Y29" s="11"/>
     </row>
     <row r="30" spans="1:25" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -3167,31 +3167,31 @@
       <c r="A35" s="25">
         <v>5</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="67"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="83"/>
       <c r="Y35" s="11"/>
     </row>
     <row r="36" spans="1:25" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3436,13 +3436,11 @@
     <sortCondition ref="C8:C12"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="F7:X7"/>
+    <mergeCell ref="F18:X18"/>
+    <mergeCell ref="F23:X23"/>
+    <mergeCell ref="F29:X29"/>
+    <mergeCell ref="F35:X35"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B35:E35"/>
@@ -3452,11 +3450,13 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F7:X7"/>
-    <mergeCell ref="F18:X18"/>
-    <mergeCell ref="F23:X23"/>
-    <mergeCell ref="F29:X29"/>
-    <mergeCell ref="F35:X35"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:W2 F5:W5 F8:W17 F19:W22 F24:W28 F30:W34 F36:W1048576">
